--- a/Data/Processed/Angiosperms/missing_powo_ipni/Amaranthaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Amaranthaceae.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -17509,7 +17509,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -25349,7 +25349,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -26262,7 +26262,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -26515,7 +26515,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -29790,7 +29790,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -32298,7 +32298,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -36236,7 +36236,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -37754,7 +37754,7 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -38007,7 +38007,7 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -39470,7 +39470,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -41703,7 +41703,7 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -42836,7 +42836,7 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H762" t="inlineStr">
@@ -42846,7 +42846,7 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nauch. Trud. Vissh Selskostop. Inst. Plovdiv 23(1): 51 (1978). </t>
+          <t>Nauch. Trud. Vissh Selskostop. Inst. Plovdiv 23(1): 51 (1978).</t>
         </is>
       </c>
       <c r="J762" t="b">
@@ -42914,7 +42914,7 @@
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H763" t="inlineStr">
@@ -42924,7 +42924,7 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 13(2): 251. 1849 [5 May 1849] </t>
+          <t>Prodr. [A. P. de Candolle] 13(2): 251. 1849 [5 May 1849]</t>
         </is>
       </c>
       <c r="J763" t="b">
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H764" t="inlineStr">
@@ -43002,7 +43002,7 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leopoldina 25: 107. 1889 </t>
+          <t>Leopoldina 25: 107. 1889</t>
         </is>
       </c>
       <c r="J764" t="b">
@@ -43070,7 +43070,7 @@
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H765" t="inlineStr">
@@ -43080,7 +43080,7 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 567. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 567. 1911</t>
         </is>
       </c>
       <c r="J765" t="b">
@@ -43148,7 +43148,7 @@
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H766" t="inlineStr">
@@ -43158,7 +43158,7 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 567. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 567. 1911</t>
         </is>
       </c>
       <c r="J766" t="b">
@@ -43226,7 +43226,7 @@
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H767" t="inlineStr">
@@ -43236,7 +43236,7 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 444. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 444. 1895</t>
         </is>
       </c>
       <c r="J767" t="b">
@@ -43304,7 +43304,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H768" t="inlineStr">
@@ -43314,7 +43314,7 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nov. Gen. Sp. Pl. (Martius) 2(1): 31. 1826 [Apr-Jun 1826] </t>
+          <t>Nov. Gen. Sp. Pl. (Martius) 2(1): 31. 1826 [Apr-Jun 1826]</t>
         </is>
       </c>
       <c r="J768" t="b">
@@ -43382,7 +43382,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H769" t="inlineStr">
@@ -43392,7 +43392,7 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nov. Gen. Sp. Pl. (Martius) 2(1): 40, t. 42. 1826 [Apr-Jun 1826] </t>
+          <t>Nov. Gen. Sp. Pl. (Martius) 2(1): 40, t. 42. 1826 [Apr-Jun 1826]</t>
         </is>
       </c>
       <c r="J769" t="b">
